--- a/biology/Zoologie/Goggia_lineata/Goggia_lineata.xlsx
+++ b/biology/Zoologie/Goggia_lineata/Goggia_lineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goggia lineata est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goggia lineata est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Afrique du Sud et dans le sud de la Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Afrique du Sud et dans le sud de la Namibie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique lineata vient du latin lineatus, rayé, en référence à l'aspect de ce saurien[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique lineata vient du latin lineatus, rayé, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1838 : A new species of lizard and land shells from South Africa. An expedition of discovery into the interior of Africa, through the hitherto undescribed countries of the Great Namaquas, Boschmans, and Hill Damaras, performed under the auspices of Her Majesty's Government and the Royal Geographical Society, H. Colburn, London, vol. 2, appendix l, p. 268-269.</t>
         </is>
